--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_09-45.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_09-45.xlsx
@@ -32,15 +32,12 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>BORGASONE 0.1% CREAM 20 GM</t>
+    <t>TELFAST 180MG 20 F.C. TABS</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>TELFAST 180MG 20 F.C. TABS</t>
-  </si>
-  <si>
     <t>0:2</t>
   </si>
   <si>
@@ -50,19 +47,7 @@
     <t>0:0</t>
   </si>
   <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>WELLMETAZONE 0.1% CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>-1:0</t>
   </si>
   <si>
     <t>كريم فاتيكا 125 مل</t>
@@ -667,11 +652,11 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="9">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="M4" s="9"/>
       <c t="s" r="N4" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1">
@@ -679,7 +664,7 @@
         <v>2</v>
       </c>
       <c t="s" r="B5" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -687,17 +672,17 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c t="s" r="H5" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" ht="24.75" customHeight="1">
@@ -705,7 +690,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B6" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -713,13 +698,13 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
@@ -745,7 +730,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
@@ -753,115 +738,37 @@
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
-      <c r="A8" s="6">
-        <v>5</v>
-      </c>
-      <c t="s" r="B8" s="7">
+      <c r="K8" s="10">
+        <v>308</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" ht="17.25" customHeight="1">
+      <c t="s" r="A9" s="11">
         <v>15</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c t="s" r="H8" s="8">
-        <v>12</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9">
-        <v>56</v>
-      </c>
-      <c r="M8" s="9"/>
-      <c t="s" r="N8" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" ht="24.75" customHeight="1">
-      <c r="A9" s="6">
-        <v>6</v>
-      </c>
-      <c t="s" r="B9" s="7">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c t="s" r="F9" s="12">
         <v>16</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c t="s" r="H9" s="8">
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+      <c t="s" r="I9" s="14">
         <v>17</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9">
-        <v>2</v>
-      </c>
-      <c r="M9" s="9"/>
-      <c t="s" r="N9" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" ht="25.5" customHeight="1">
-      <c r="A10" s="6">
-        <v>7</v>
-      </c>
-      <c t="s" r="B10" s="7">
-        <v>18</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c t="s" r="H10" s="8">
-        <v>19</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9">
-        <v>50</v>
-      </c>
-      <c r="M10" s="9"/>
-      <c t="s" r="N10" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="K11" s="10">
-        <v>371</v>
-      </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="11">
-        <v>20</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c t="s" r="F12" s="12">
-        <v>21</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-      <c t="s" r="I12" s="14">
-        <v>22</v>
-      </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="23">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -881,19 +788,10 @@
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I9:N9"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/صيدليات دكتور مصطفي طلعت_2026-01-15_09-45.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-15_09-45.xlsx
@@ -32,22 +32,37 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>TELFAST 180MG 20 F.C. TABS</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>0:2</t>
   </si>
   <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
   </si>
   <si>
-    <t>0:0</t>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
   </si>
   <si>
     <t>WELLMETAZONE 0.1% CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>-1:0</t>
   </si>
   <si>
     <t>كريم فاتيكا 125 مل</t>
@@ -652,7 +667,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="9">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="M4" s="9"/>
       <c t="s" r="N4" s="7">
@@ -672,17 +687,17 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c t="s" r="H5" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="24.75" customHeight="1">
@@ -698,17 +713,17 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -730,45 +745,123 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="25.5" customHeight="1">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c t="s" r="B8" s="7">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c t="s" r="H8" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" ht="25.5" customHeight="1">
-      <c r="K8" s="10">
-        <v>308</v>
-      </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" ht="17.25" customHeight="1">
-      <c t="s" r="A9" s="11">
-        <v>15</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c t="s" r="F9" s="12">
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9">
+        <v>56</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c t="s" r="N8" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" ht="24.75" customHeight="1">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c t="s" r="B9" s="7">
         <v>16</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c t="s" r="I9" s="14">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c t="s" r="H9" s="8">
         <v>17</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9">
+        <v>2</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c t="s" r="N9" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" ht="25.5" customHeight="1">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c t="s" r="B10" s="7">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c t="s" r="H10" s="8">
+        <v>19</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9">
+        <v>50</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c t="s" r="N10" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="K11" s="10">
+        <v>388</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="11">
+        <v>20</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c t="s" r="F12" s="12">
+        <v>21</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
+      <c t="s" r="I12" s="14">
+        <v>22</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="32">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -788,10 +881,19 @@
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:N12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
